--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,152 +474,166 @@
           <t>Imagen</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precio_Num</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Playstation 5 Consola Estandar (Modelo Slim), Blanco</t>
+          <t>Google Pixel 8 - Smartphone Android libre con Cámara Pixel avanzada, batería con autonomía de 24 horas y potentes funciones de seguridad - Rosa, 128GB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CLT54ZNZ</t>
+          <t>B0CGVNTPY7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>799,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>799,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,1 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>803</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Playstation-Consola-Estandar-Modelo-Blanco/dp/B0CLT54ZNZ/ref=sr_1_1?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDA3MzU3MDMzNTUzMjo6MDo6&amp;url=%2FGoogle-Pixel-Smartphone-autonom%25C3%25ADa-funciones%2Fdp%2FB0CGVNTPY7%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41yRAPi7UOL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/71TC7FbbaKL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Playstation 5 Consola Digital Modelo Slim</t>
+          <t>Google Pixel 7a - Smartphone 5G Android Libre con Lente Gran Angular y batería de 24 Horas de duración - Carbón</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CLTBHXWQ</t>
+          <t>B0BZJK1ZTY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>509,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>509,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,2 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>488</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Playstation-Consola-Digital-Modelo-Slim/dp/B0CLTBHXWQ/ref=sr_1_2?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-2</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjIwMTYwNDQ3Mzc1NTk4OjowOjo&amp;url=%2FGoogle-Pixel-7a-Smartphone-duraci%25C3%25B3n%2Fdp%2FB0BZJK1ZTY%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/514XOdDubxL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/615tIZYLMEL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Playstation Sony 5 825GB BluRay (PS5) White + 2 DualSense Controllers</t>
+          <t>Cargador Carga Rapida para Samsung, 45W Cargador con Cable USB C de 2M, Enchufe USB C para Samsung Galaxy S23 Ultra/S22/S22+/S21/S21+/S21/Note20/Note20 Ultra/A53/Z Flip4/Z Fold4 5G</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BRQCBK2W</t>
+          <t>B0CW25KC17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>18,89 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>18,89 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sony-Playstation-BluRay-DualSense-Controllers/dp/B0BRQCBK2W/ref=sr_1_3?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-3</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDExMDQzMjMwODMzMjo6MDo6&amp;url=%2FCargador-Rapida-Samsung-Enchufe-Galaxy%2Fdp%2FB0CW25KC17%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61n7VRBOaQL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/611SrzF8GJL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PlayStation - Mando Inalámbrico DualSense | Mando Original Sony para PS5 con Retroalimentación Háptica y Gatillos Adaptativos - Color Blanco</t>
+          <t>SAMSUNG S918B/DS Galaxy S23 Ultra 5G, Dual, libre, 512GB 12GB RAM, Phantom Black</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B08KJPLGLF</t>
+          <t>B0BRYF8XL8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>66,43 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66,43 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,113 +643,122 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.353</t>
+          <t>320</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/PlayStation-5-Mando-inal%C3%A1mbrico-DualSense/dp/B08KJPLGLF/ref=sr_1_4?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-4</t>
+          <t>https://www.amazon.com/SAMSUNG-S918B-Galaxy-Ultra-Phantom/dp/B0BRYF8XL8/ref=sr_1_7_mod_primary_new?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51KNE0DS4vS._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/71KzRpQo3CL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1.349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EA SPORTS FC 24 Standard Edition PS5 | Videojuegos | Castellano</t>
+          <t>Google Pixel 8 Pro -Smartphone Android libre con lente teleobjetivo, batería con autonomía de 24 horas y pantalla Super Actua - Celeste, 128GB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CB6VZ3YW</t>
+          <t>B0CGVTTZ7B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>79,99 €</t>
+          <t>1.099,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79,99 €</t>
+          <t>1.099,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,3 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SPORTS-Standard-PS5-Videojuegos-Castellano/dp/B0CB6VZ3YW/ref=sr_1_5?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDA3NTM1OTI3MzAzMjo6MDo6&amp;url=%2FGoogle-Smartphone-teleobjetivo-autonom%25C3%25ADa-pantalla%2Fdp%2FB0CGVTTZ7B%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71AFopTCg6L._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/71iCxoF7m-L._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1.099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Playstation Auriculares inalámbricos PULSE 3D - PlayStation 5</t>
+          <t>SAMSUNG Galaxy S23 Ultra (S918) 5G Dual Sim 256GB 8GB RAM (Phantom Black) Black</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B08H99878P</t>
+          <t>B0BV2KZVNY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>99,99 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99,99 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22.872</t>
+          <t>198</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Auriculares-inal%C3%A1mbricos-PULSE-3D-PlayStation/dp/B08H99878P/ref=sr_1_6?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-6</t>
+          <t>https://www.amazon.com/SAMSUNG-Galaxy-Ultra-256GB-Phantom/dp/B0BV2KZVNY/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617BtfBMPPL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/51AJymISsfL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Console Sony PlayStation 5 Édition Standard Blanche EA Sport FC 24</t>
+          <t>Samsung Galaxy S23 Ultra Smartphone Android, Desbloqueado, 1TB, Batería de 5000 mAh, Incluye Cargador de 45W, Versión Española, Color Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CGV4SBDL</t>
+          <t>B0BWFLMTKB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,18 +778,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.106</t>
+          <t>428</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Console-PlayStation-%C3%89dition-Standard-Blanche/dp/B0CGV4SBDL/ref=sr_1_7?dib=eyJ2IjoiMSJ9.s4zd-mjxqs6hy6PfmFRAscPw29eptH4A7w5NKKOxmrZykT4VSl05je1V3MV6YNA-GENaX4yiQzDzTDoIIfK9n2ubmH0t_pQgTYEzpA4JnqmBK5b5uBdPMXc1_ABXnqpVP2HuX5z_PTNinh9LK5LV1LGQk6e7jjylnBZSc4J1SczK5GidZcCUbDNexa3PUiJxjDg0JgUb9dRMFndqzX9jl324J2KZ1eejOEjBCPiVXbftQGs2UlPZjBDj4DqHzjmqHjhvZLsJlObLDcn5tdjyZ6RhEEOsZmJejFxZPy1OPdc.aDxES4i-xoU6TiqKiCh6HIFuErcJgivkq6UxzGBDulA&amp;dib_tag=se&amp;keywords=playstation+5&amp;qid=1709771295&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Samsung-Smartphone-Desbloqueado-Cargador-Espa%C3%B1ola/dp/B0BWFLMTKB/ref=sr_1_6?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81CUDIxdTVL._AC_UL320_.jpg</t>
-        </is>
+          <t>https://m.media-amazon.com/images/I/61An4NkIWJL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -483,157 +483,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Google Pixel 8 - Smartphone Android libre con Cámara Pixel avanzada, batería con autonomía de 24 horas y potentes funciones de seguridad - Rosa, 128GB</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CGVNTPY7</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>799,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>799,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,1 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>1.148</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDA3MzU3MDMzNTUzMjo6MDo6&amp;url=%2FGoogle-Pixel-Smartphone-autonom%25C3%25ADa-funciones%2Fdp%2FB0CGVNTPY7%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TC7FbbaKL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>799</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Google Pixel 7a - Smartphone 5G Android Libre con Lente Gran Angular y batería de 24 Horas de duración - Carbón</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BZJK1ZTY</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>509,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>509,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,2 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>1.148</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjIwMTYwNDQ3Mzc1NTk4OjowOjo&amp;url=%2FGoogle-Pixel-7a-Smartphone-duraci%25C3%25B3n%2Fdp%2FB0BZJK1ZTY%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615tIZYLMEL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>509</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cargador Carga Rapida para Samsung, 45W Cargador con Cable USB C de 2M, Enchufe USB C para Samsung Galaxy S23 Ultra/S22/S22+/S21/S21+/S21/Note20/Note20 Ultra/A53/Z Flip4/Z Fold4 5G</t>
+          <t>Apple iPhone 15 (128 GB) - Schwarz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CW25KC17</t>
+          <t>B0CHXFCYCR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18,89 €</t>
+          <t>884,52 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18,89 €</t>
+          <t>884,52 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>529</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDExMDQzMjMwODMzMjo6MDo6&amp;url=%2FCargador-Rapida-Samsung-Enchufe-Galaxy%2Fdp%2FB0CW25KC17%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611SrzF8GJL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41AIsGLa9HL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAMSUNG S918B/DS Galaxy S23 Ultra 5G, Dual, libre, 512GB 12GB RAM, Phantom Black</t>
+          <t>Apple iPhone 14 (128 GB) - (Product) Red</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BRYF8XL8</t>
+          <t>B0BDKBQ158</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -643,156 +643,156 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>5.014</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-S918B-Galaxy-Ultra-Phantom/dp/B0BRYF8XL8/ref=sr_1_7_mod_primary_new?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71KzRpQo3CL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/611mRs-imxL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.349</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Google Pixel 8 Pro -Smartphone Android libre con lente teleobjetivo, batería con autonomía de 24 horas y pantalla Super Actua - Celeste, 128GB</t>
+          <t>Apple iPhone 15 Pro (256 GB) - Titanio Natural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CGVTTZ7B</t>
+          <t>B0CHWYHBCZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.099,00 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.099,00 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,3 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTk2MTU3MzEwNDIwMDY2OjE3MDk4MDk0MjQ6c3BfYXRmOjMwMDA3NTM1OTI3MzAzMjo6MDo6&amp;url=%2FGoogle-Smartphone-teleobjetivo-autonom%25C3%25ADa-pantalla%2Fdp%2FB0CGVTTZ7B%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg%26dib_tag%3Dse%26keywords%3Dsamsung%2Bs23%2Bultra%26qid%3D1709809424%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-256/dp/B0CHWYHBCZ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71iCxoF7m-L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.099</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy S23 Ultra (S918) 5G Dual Sim 256GB 8GB RAM (Phantom Black) Black</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BV2KZVNY</t>
+          <t>B0CHX426VG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1.198</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Galaxy-Ultra-256GB-Phantom/dp/B0BV2KZVNY/ref=sr_1_5?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sr=8-5</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51AJymISsfL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra Smartphone Android, Desbloqueado, 1TB, Batería de 5000 mAh, Incluye Cargador de 45W, Versión Española, Color Negro</t>
+          <t>Apple iPhone 15 Plus (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BWFLMTKB</t>
+          <t>B0CHXF5WL4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.109,00 €</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>1.109,00 €</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>255</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Samsung-Smartphone-Desbloqueado-Cargador-Espa%C3%B1ola/dp/B0BWFLMTKB/ref=sr_1_6?dib=eyJ2IjoiMSJ9.Qo_CV_WA6FOWI4ahpU_k00LsgRbEbqLGIGYHFRlxJ-nnJ7SMOiybI0kBndgT6JqC5UAydD5c1ZZmLrPxihTdnjbbYvMlrERB9_KT2XhPtunQFCxVIWz4Oh1aH2pJV_lv5hjD4ZIMmPhITOJTu4SZrkvw_0GeVvWZug5kZY12Jyfi85ZjpYbvUDhOKTwyA69B4XFVe32oq3kMwskIu1y2fPzWwxaOVh5LgotsBBd_PttLnFZsUuQ1DOdDhxinRmse9kpJFLOcYRyR3YhODr4xGXQYk-fDlNUa68bqc50wgPo.sK5Kz_mLr4w8XMujx1-e27xvjAhQuO5hQlX1m_3aVvg&amp;dib_tag=se&amp;keywords=samsung+s23+ultra&amp;qid=1709809424&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61An4NkIWJL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/713xdJGERML._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.109</v>
       </c>
     </row>
   </sheetData>

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-6</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -663,22 +663,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (256 GB) - Titanio Natural</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CHWYHBCZ</t>
+          <t>B0CHX426VG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.349,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -693,27 +693,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-Pro-256/dp/B0CHWYHBCZ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709811649&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.349</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Natural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CHX426VG</t>
+          <t>B0CHX5FL7Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX5FL7Z/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0OTA2MTc4NjE0NzY4MDY2OjE3MDk4MTE2NDk6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYO6XiNuNiMfMo3MgAl0JHPxyMDXYBd68vvKo_kR69ECco5c1Gy-RDStTuwNbz_hsGw_ylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVTPD-1kybSeXzlVRM4mt-OhmCg9JiCZBbi1NZigk7VBfSWfC12S2WYICRuZ3On9i_I.fP6HdP3VImchi7MUIysrEaTpAbvdYEGGFbGpLJt9mjc%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709811649%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Apple iPhone 15 (128 GB) - Rosa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0CHWWNY6F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAwOTMyOjowOjo&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWWNY6F%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71CW36JRavL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -553,12 +553,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.148</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_6?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -573,67 +573,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Schwarz</t>
+          <t>Apple iPhone 15 Pro MAX (256 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CHXFCYCR</t>
+          <t>B0CHX1DDJM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>884,52 €</t>
+          <t>1.469,00 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>884,52 €</t>
+          <t>1.469,00 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>972</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHXFCYCR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTA1ODMyOjowOjo&amp;url=%2FApple-iPhone-Pro-MAX-256%2Fdp%2FB0CHX1DDJM%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41AIsGLa9HL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81fYvFvX-8L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>884</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 14 (128 GB) - (Product) Red</t>
+          <t>Apple iPhone 15 Plus (256 GB) - Rosa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BDKBQ158</t>
+          <t>B0CHX8RVHJ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>1.239,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>859,00 €</t>
+          <t>1.239,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -643,21 +643,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.014</t>
+          <t>255</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjIwMDc2NjQ4MDYwNjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBQ158%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAzNTMyOjowOjo&amp;url=%2FApple-iPhone-15-Plus-256%2Fdp%2FB0CHX8RVHJ%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611mRs-imxL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71iT4Gw5dXL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>859</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="6">
@@ -688,12 +688,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.199</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAxOTMyOjowOjo&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.199</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX5FL7Z/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM&amp;dib_tag=se&amp;keywords=iphone+15&amp;qid=1709814967&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX5FL7Z/ref=sr_1_5?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus (128 GB) - Negro</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titan Blau</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CHXF5WL4</t>
+          <t>B0CHX53QY9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.109,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.109,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,21 +778,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>271</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjQ1NTg0NDIzNjMxMDY2OjE3MDk4MTQ5Njc6c3BfYXRmOjMwMDA1NDUyODEwMzMzMjo6MDo6&amp;url=%2FApple-iPhone-15-Plus-128%2Fdp%2FB0CHXF5WL4%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZvsfLNdhySjrIp70SZkYOxCG9C4PBkB9AKhZkeCP_Xkdp1HcZFetGltIBTv8VEsQAzjkH0wMAWShkizdkB4D1vylrNOlbPy7JrrEyT4qYmYdhkWsT1-J1WcwlhDeYum7mNaIZujDbmK9Wun0Z-EKRtnimhJTfD7yLqM4r7ODVhYJKUbPkOv74FloUP8IUhNEIN_dFetGG2INXef-SQ3qB5_QMAhZwH31za_-i_pPsVRvGaFv0S-KrFTtX6cvmKM8-dDQUj-cDh7N4iPP8kV-hiWfC12S2WYICRuZ3On9i_I.-9JsWuMtYscGcMYtvnNYowOTptb6xrU22IJvYQqFtpM%26dib_tag%3Dse%26keywords%3Diphone%2B15%26qid%3D1709814967%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX53QY9/ref=sr_1_7?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/713xdJGERML._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51gEgLzE++L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.109</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -483,282 +483,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Rosa</t>
+          <t>Apple Watch Series 9 [GPS] Smartwatch con Caja de Aluminio en Color Medianoche de 45 mm y Correa Deportiva Color Medianoche - Talla M/L. Monitor de entreno, App Oxígeno en Sangre, Resistencia al Agua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWWNY6F</t>
+          <t>B0CHX183CW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>479,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>479,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>901</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAwOTMyOjowOjo&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWWNY6F%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-Smartwatch-Aluminio-Medianoche-Deportiva/dp/B0CHX183CW/ref=sr_1_4?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71CW36JRavL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71HMrrqcbOL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>959</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 (128 GB) - Negro</t>
+          <t>Apple Watch Series 9 [GPS] Smartwatch con Caja de Aluminio en Color Medianoche de 41 mm y Correa Deportiva Color Medianoche - Talla S/M. Monitor de entreno, App Oxígeno en Sangre, Resistencia al Agua</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CHWV5HTM</t>
+          <t>B0CHX92K1P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>449,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>959,00 €</t>
+          <t>449,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.152</t>
+          <t>901</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-128-GB/dp/B0CHWV5HTM/ref=sr_1_6?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODcwNjAwMTEwMDgzMDY2OjE3MDk4MjgyMDc6c3BfYXRmOjMwMDA1NDUyODExMjYzMjo6MDo6&amp;url=%2FApple-Smartwatch-Aluminio-Medianoche-Deportiva%2Fdp%2FB0CHX92K1P%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo%26dib_tag%3Dse%26keywords%3Dapple%2Bwatch%26qid%3D1709828207%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/713kz8xK3ML._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>959</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro MAX (256 GB) - Titanio Negro</t>
+          <t>Apple Watch SE de 2.ª generación, 2023 [GPS + Cellular] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CHX1DDJM</t>
+          <t>B0CHX6LLYK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.469,00 €</t>
+          <t>329,00 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.469,00 €</t>
+          <t>329,00 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTA1ODMyOjowOjo&amp;url=%2FApple-iPhone-Pro-MAX-256%2Fdp%2FB0CHX1DDJM%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-generaci%C3%B3n-Cellular-Smartwatch-Deportiva/dp/B0CHX6LLYK/ref=sr_1_5?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81fYvFvX-8L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61l14amLq1L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.469</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Plus (256 GB) - Rosa</t>
+          <t>Apple Watch SE de 2.ª generación, 2023 [GPS] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño, Pantalla Retina</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CHX8RVHJ</t>
+          <t>B0CHX415P6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.239,00 €</t>
+          <t>279,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.239,00 €</t>
+          <t>279,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>906</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAzNTMyOjowOjo&amp;url=%2FApple-iPhone-15-Plus-256%2Fdp%2FB0CHX8RVHJ%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODcwNjAwMTEwMDgzMDY2OjE3MDk4MjgyMDc6c3BfYXRmOjMwMDA1NDUyODExNDUzMjo6MDo6&amp;url=%2FApple-generaci%25C3%25B3n-Smartwatch-Aluminio-Deportiva%2Fdp%2FB0CHX415P6%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo%26dib_tag%3Dse%26keywords%3Dapple%2Bwatch%26qid%3D1709828207%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71iT4Gw5dXL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61R+kfxZlgL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
+          <t>Apple Watch SE de 2.ª generación, 2023 [GPS] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño, Pantalla Retina</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CHX426VG</t>
+          <t>B0CHX415P6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>279,00 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>279,00 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>906</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNjkyMjgxMDAzMDgwNjY6MTcwOTgxNjg5MzpzcF9hdGY6MzAwMDU0NTI4MTAxOTMyOjowOjo&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709816893%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-generaci%C3%B3n-Smartwatch-Aluminio-Deportiva/dp/B0CHX415P6/ref=sr_1_3?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61R+kfxZlgL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titanio Natural</t>
+          <t>Apple Watch Series 3 42mm (GPS) - Caja De Aluminio En Gris Espacial / Gris Correa Deportiva (Reacondicionado)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CHX5FL7Z</t>
+          <t>B07T4H5WGM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.219,00 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>3,9 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.199</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX5FL7Z/ref=sr_1_5?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-Watch-42mm-GPS-Reacondicionado/dp/B07T4H5WGM/ref=sr_1_6?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/616RFY+98NL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (128 GB) - Titan Blau</t>
+          <t>Apple Watch Series 7 (GPS, 45MM) - Caja de Aluminio Medianoche con Banda Medianoche Deportiva (Reacondicionado)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CHX53QY9</t>
+          <t>B09MMK85VV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,0 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>285</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-iPhone-15-Pro-128/dp/B0CHX53QY9/ref=sr_1_7?dib=eyJ2IjoiMSJ9.lJ3yI5C8DXIJku65IaMIZEnZefvjxxcPHLnl00xY5pWPz_a-iDeE0EIEx97ck7tj9dUSF1LyrdE7BwQK45Lq-qPPw5DkO2EnKW9JPMwDMYSBmok8tviuAgEqSBRt3wdaBtjCRht18KTf5m6ZCvTHdrMk-qk9tAnWBi5sPUXu5kE4NMoZn_I34cHi_daTBNubEcBTZPKRkIccjP_JS3wfw4GxU9MGigoq6__wJntoaNptIYv9xaudQORleDp5A0xseF_ca7CgTAtkJ1ma2Tud2rVho_oSZc35W55LACJnw8c.XaxIDg9AHpN9esGpFH0XHsM3KrZRl4xyQfkjnvgcGJA&amp;dib_tag=se&amp;keywords=iphone+15+pro&amp;qid=1709816893&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Apple-Watch-GPS-45MM-Reacondicionado/dp/B09MMK85VV/ref=sr_1_7?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51gEgLzE++L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71kKO0AeR+L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -483,237 +483,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple Watch Series 9 [GPS] Smartwatch con Caja de Aluminio en Color Medianoche de 45 mm y Correa Deportiva Color Medianoche - Talla M/L. Monitor de entreno, App Oxígeno en Sangre, Resistencia al Agua</t>
+          <t>SAMSUNG Galaxy A34 5G (256GB, 8 GB de RAM) + Funda - Smartphone Android Color Negro, Pantalla Super AMOLED de 6,6 Pulgadas, Batería de 5000 mAh. Exclusivo Amazon (Versión española)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHX183CW</t>
+          <t>B0BWNCMTT9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>479,00 €</t>
+          <t>494,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>479,00 €</t>
+          <t>494,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,3 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>266</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-Smartwatch-Aluminio-Medianoche-Deportiva/dp/B0CHX183CW/ref=sr_1_4?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-4</t>
+          <t>https://www.amazon.com/SAMSUNG-Galaxy-A34-256GB-Funda/dp/B0BWNCMTT9/ref=sr_1_4?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71HMrrqcbOL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/615SZWac-OL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple Watch Series 9 [GPS] Smartwatch con Caja de Aluminio en Color Medianoche de 41 mm y Correa Deportiva Color Medianoche - Talla S/M. Monitor de entreno, App Oxígeno en Sangre, Resistencia al Agua</t>
+          <t>Samsung Galaxy M34 5G (azul cascada, 6 GB, 128 GB), pantalla sAMOLED de 120 Hz, cámara triple sin vibración de 50 MP, batería de 6000 mAh, actualización del sistema operativo 4 Gen y actualización de</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CHX92K1P</t>
+          <t>B0C7C28GKF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>449,00 €</t>
+          <t>237,95 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>449,00 €</t>
+          <t>237,95 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrellas</t>
+          <t>4,0 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>10.399</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODcwNjAwMTEwMDgzMDY2OjE3MDk4MjgyMDc6c3BfYXRmOjMwMDA1NDUyODExMjYzMjo6MDo6&amp;url=%2FApple-Smartwatch-Aluminio-Medianoche-Deportiva%2Fdp%2FB0CHX92K1P%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo%26dib_tag%3Dse%26keywords%3Dapple%2Bwatch%26qid%3D1709828207%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Samsung-pantalla-vibraci%C3%B3n-actualizaci%C3%B3n-operativo/dp/B0C7C28GKF/ref=sr_1_6?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/713kz8xK3ML._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91L9EF-OEGL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>449</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple Watch SE de 2.ª generación, 2023 [GPS + Cellular] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño</t>
+          <t>SAMSUNG Smartphone A15 MediaTek Helio G99 4 GB RAM 128 GB Negro Negro/Azul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CHX6LLYK</t>
+          <t>B0CR77BGWB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>329,00 €</t>
+          <t>199,00 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>329,00 €</t>
+          <t>199,00 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,5 de 5 estrellas</t>
+          <t>4,2 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-generaci%C3%B3n-Cellular-Smartwatch-Deportiva/dp/B0CHX6LLYK/ref=sr_1_5?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-5</t>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-MediaTek-Helio-Negro/dp/B0CR77BGWB/ref=sr_1_2?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61l14amLq1L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51aU3gdVEzL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>329</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple Watch SE de 2.ª generación, 2023 [GPS] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño, Pantalla Retina</t>
+          <t>SAMSUNG Galaxy A15 128 GB con Funda, Teléfono Móvil LTE, Smartphone Android, Carga Rápida, Sin Galaxy Buds FE, Color Azul (Versión Española)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CHX415P6</t>
+          <t>B0CN3GXV6D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>279,00 €</t>
+          <t>199,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>279,00 €</t>
+          <t>199,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>3,8 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODcwNjAwMTEwMDgzMDY2OjE3MDk4MjgyMDc6c3BfYXRmOjMwMDA1NDUyODExNDUzMjo6MDo6&amp;url=%2FApple-generaci%25C3%25B3n-Smartwatch-Aluminio-Deportiva%2Fdp%2FB0CHX415P6%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo%26dib_tag%3Dse%26keywords%3Dapple%2Bwatch%26qid%3D1709828207%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/SAMSUNG-Tel%C3%A9fono-Smartphone-Android-Espa%C3%B1ola/dp/B0CN3GXV6D/ref=sr_1_7?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61R+kfxZlgL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61247fn6AvL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>279</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple Watch SE de 2.ª generación, 2023 [GPS] Smartwatch con Caja de Aluminio en Blanco Estrella de 40 mm y Correa Deportiva Blanco Estrella - Talla S/M. Monitor de entreno y sueño, Pantalla Retina</t>
+          <t>SAMSUNG - Galaxy A14 libre color negro 64GB Preto SM-A145RZKUEUB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CHX415P6</t>
+          <t>B0BYWB6R4N</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>279,00 €</t>
+          <t>196,75 €</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>279,00 €</t>
+          <t>196,75 €</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,3 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>2.765</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-generaci%C3%B3n-Smartwatch-Aluminio-Deportiva/dp/B0CHX415P6/ref=sr_1_3?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-3</t>
+          <t>https://www.amazon.com/SAMSUNG-Galaxy-libre-color-SM-A145RZKUEUB/dp/B0BYWB6R4N/ref=sr_1_3?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61R+kfxZlgL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71HMXprK79L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>279</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple Watch Series 3 42mm (GPS) - Caja De Aluminio En Gris Espacial / Gris Correa Deportiva (Reacondicionado)</t>
+          <t>Samsung CLT-C506L (SU038A)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B07T4H5WGM</t>
+          <t>B079DMRTZS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3,9 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-Watch-42mm-GPS-Reacondicionado/dp/B07T4H5WGM/ref=sr_1_6?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTA2MDUzNDA1NDk3MDk4OjE3MTI1NzMwNDI6c3BfYXRmOjIwMDg1MzgzMzI4NDk4OjowOjo&amp;url=%2FSamsung-CLT-C506L-ELS-SU038A%2Fdp%2FB079DMRTZS%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k%26dib_tag%3Dse%26keywords%3Dsamsung%26qid%3D1712573042%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/616RFY+98NL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51O0CPoOpZL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -753,12 +753,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple Watch Series 7 (GPS, 45MM) - Caja de Aluminio Medianoche con Banda Medianoche Deportiva (Reacondicionado)</t>
+          <t>SAMSUNG Galaxy A15 Smartphone 128GB Azul medianoche</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B09MMK85VV</t>
+          <t>B0CTH16HB8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,0 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Apple-Watch-GPS-45MM-Reacondicionado/dp/B09MMK85VV/ref=sr_1_7?dib=eyJ2IjoiMSJ9.bHSKheK_bDmJPD57UC3_e6krwHXQH7-T60kpS1KgWCio0SI551aD2fygZ0Ss0ZmAosy3jH59Bj_jNk15fFgsE9xqQdi5YLd3AlmV0WQCfReOQxz7acCo_wMDDgxv2uL0B9TqTFXN_YTya9Wxnp8mgvQPHZkhM0DD9vUbbRWSWPbUONvsQja_Zm_aoCWPn7BmyKFkzBC84MNgvUPoWlIwpt0ig6HjOl9-COm3u-Sn9DI86GlfDDIV2ZZyAC3Q20Jq0lR-pJJprtmcvHTcQD68AjUTNRrkDzDjAAp5LXjwQo4.dYHTihJuCImmf9GCk-DIIWn5ZaZUbhcGiv1O3QCduNo&amp;dib_tag=se&amp;keywords=apple+watch&amp;qid=1709828207&amp;sr=8-7</t>
+          <t>https://www.amazon.com/SAMSUNG-Galaxy-Smartphone-128GB-medianoche/dp/B0CTH16HB8/ref=sr_1_5_mod_primary_new?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71kKO0AeR+L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51m9VJtikSL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">

--- a/output/product2_amazon.xlsx
+++ b/output/product2_amazon.xlsx
@@ -483,237 +483,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy A34 5G (256GB, 8 GB de RAM) + Funda - Smartphone Android Color Negro, Pantalla Super AMOLED de 6,6 Pulgadas, Batería de 5000 mAh. Exclusivo Amazon (Versión española)</t>
+          <t>Apple iPhone 15 (128 GB) - Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BWNCMTT9</t>
+          <t>B0CHWV5HTM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>494,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>494,00 €</t>
+          <t>959,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4,3 de 5 estrellas</t>
+          <t>4,5 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1.601</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Galaxy-A34-256GB-Funda/dp/B0BWNCMTT9/ref=sr_1_4?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-4</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MjgyNzUxODkyOTMxMTIwOjE3MTQ0ODg4MDg6c3BfYXRmOjMwMDA1NDUyODEwMDUzMjo6MDo6&amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CHWV5HTM%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1714488808%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615SZWac-OL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61eEYLATF9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>494</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M34 5G (azul cascada, 6 GB, 128 GB), pantalla sAMOLED de 120 Hz, cámara triple sin vibración de 50 MP, batería de 6000 mAh, actualización del sistema operativo 4 Gen y actualización de</t>
+          <t>Apple iPhone 14 (128 GB) - Negro Noche</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0C7C28GKF</t>
+          <t>B0BDKBLF8C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>237,95 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>237,95 €</t>
+          <t>859,00 €</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,0 de 5 estrellas</t>
+          <t>4,6 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.399</t>
+          <t>5.336</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Samsung-pantalla-vibraci%C3%B3n-actualizaci%C3%B3n-operativo/dp/B0C7C28GKF/ref=sr_1_6?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MjgyNzUxODkyOTMxMTIwOjE3MTQ0ODg4MDg6c3BfYXRmOjIwMDk2NDU2OTgxMjk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDKBLF8C%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1714488808%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91L9EF-OEGL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61cwywLZR-L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>237</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAMSUNG Smartphone A15 MediaTek Helio G99 4 GB RAM 128 GB Negro Negro/Azul</t>
+          <t>Apple iPhone 15 Pro (256 GB) - Titanio Natural</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CR77BGWB</t>
+          <t>B0CHWYHBCZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>199,00 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>199,00 €</t>
+          <t>1.349,00 €</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,2 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Smartphone-MediaTek-Helio-Negro/dp/B0CR77BGWB/ref=sr_1_2?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-2</t>
+          <t>https://www.amazon.com/Apple-iPhone-15-Pro-256/dp/B0CHWYHBCZ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1714488808&amp;sr=8-7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51aU3gdVEzL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81Wwngkh2OL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>199</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy A15 128 GB con Funda, Teléfono Móvil LTE, Smartphone Android, Carga Rápida, Sin Galaxy Buds FE, Color Azul (Versión Española)</t>
+          <t>Apple iPhone 15 Pro (128 GB) - Titanio Negro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CN3GXV6D</t>
+          <t>B0CHX426VG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>199,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>199,00 €</t>
+          <t>1.219,00 €</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3,8 de 5 estrellas</t>
+          <t>4,4 de 5 estrellas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.542</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Tel%C3%A9fono-Smartphone-Android-Espa%C3%B1ola/dp/B0CN3GXV6D/ref=sr_1_7?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MjgyNzUxODkyOTMxMTIwOjE3MTQ0ODg4MDg6c3BfYXRmOjMwMDA1NDUyODEwMTkzMjo6MDo6&amp;url=%2FApple-iPhone-15-Pro-128%2Fdp%2FB0CHX426VG%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1714488808%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61247fn6AvL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/812oGW3LDdL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>199</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAMSUNG - Galaxy A14 libre color negro 64GB Preto SM-A145RZKUEUB</t>
+          <t>Apple iPhone 14 Pro (128 GB) - Oro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BYWB6R4N</t>
+          <t>B0BDKQJ14P</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>196,75 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>196,75 €</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,3 de 5 estrellas</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.765</t>
+          <t>3.755</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Galaxy-libre-color-SM-A145RZKUEUB/dp/B0BYWB6R4N/ref=sr_1_3?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sr=8-3</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MjgyNzUxODkyOTMxMTIwOjE3MTQ0ODg4MDg6c3BfYXRmOjIwMDk2NDY4Nzk3MDk4OjowOjo&amp;url=%2FApple-iPhone-14-Pro-128%2Fdp%2FB0BDKQJ14P%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI%26dib_tag%3Dse%26keywords%3Diphone%2B14%2Bpro%26qid%3D1714488808%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71HMXprK79L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Samsung CLT-C506L (SU038A)</t>
+          <t>Apple iPhone 14 Pro (128 GB) - Negro Espacial (Reacondicionado)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B079DMRTZS</t>
+          <t>B0BNLZD9VX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrellas</t>
+          <t>4,0 de 5 estrellas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNTA2MDUzNDA1NDk3MDk4OjE3MTI1NzMwNDI6c3BfYXRmOjIwMDg1MzgzMzI4NDk4OjowOjo&amp;url=%2FSamsung-CLT-C506L-ELS-SU038A%2Fdp%2FB079DMRTZS%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k%26dib_tag%3Dse%26keywords%3Dsamsung%26qid%3D1712573042%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Apple-iPhone-Pro-128-Reacondicionado/dp/B0BNLZD9VX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1714488808&amp;sr=8-5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51O0CPoOpZL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61XO4bORHUL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -753,12 +753,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAMSUNG Galaxy A15 Smartphone 128GB Azul medianoche</t>
+          <t>iPhone 14 Pro 128GB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CTH16HB8</t>
+          <t>B0BNLZ9G4N</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -773,22 +773,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrellas</t>
+          <t>4,2 de 5 estrellas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAMSUNG-Galaxy-Smartphone-128GB-medianoche/dp/B0CTH16HB8/ref=sr_1_5_mod_primary_new?dib=eyJ2IjoiMSJ9.yzdNepO6wk5BlL7FJN_nb1epvJ87rV2H_BSxnRe0XnWbSVxUiMK21uEd9Bi-_ZXjvCrFw9zwZkfbPOvFBD7BHH17t9Phy9lItSc1GlIHObm3TiOWgoYqEfE1iVcYTBgfFdxlxI-4Ek7SMVDD6opzHHde41BCdFb9VeVNGXi8I7HZb_Djr9IcPMZw0FQv78PlgC3fp9Akkbmp6AMVUfWGQe8NUXy8QRLnh2SLDzhJKmK1Tm58FuhBmvzOyF49DMSFzWAGxM4TL_J4mYKQVTIVqB91iLSncHRSyy5epSeCD6E.RWchtypds-LIq0hMGQErkmNpzK7K6CQKknfNmWsJf6k&amp;dib_tag=se&amp;keywords=samsung&amp;qid=1712573042&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Apple-MPXV3ZD-A-iPhone-128GB/dp/B0BNLZ9G4N/ref=sr_1_6?dib=eyJ2IjoiMSJ9.OYM0aHInlRxZsg3EVd_Eua1HxuguguLi9Cw5kjL-Oed91qG-SDhw7WJYXaKdqJJYQfhVE8YFfjxuLEfH7R7Dl1qc2RpZq_ejDHfTSFPl32ukl5iBlFdb4MZXc0Am7IV7H_qGWcI2POkKFyGplMl957fd1_51SOGGNx-d9TP8_gRWRnrjxWaewzjiaUplX_gj-EjcWeloE8L4oIcjswWtehz-6UbHNo773VdIzTUdKkNPf1d9VFJZu7H5MRe_p9NcY2TuhFkWEWi2tumI9oV1ruYfLwETsVq3z4MkTxwMfXw.mb2MGHocNO-frBNbJ4dDzPT87U2szvuCv4ZlW3DuHhI&amp;dib_tag=se&amp;keywords=iphone+14+pro&amp;qid=1714488808&amp;sr=8-6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51m9VJtikSL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61XO4bORHUL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
